--- a/Parsing_characteristis_and_photo/Керам-Трейд 12.12.24.xlsx
+++ b/Parsing_characteristis_and_photo/Керам-Трейд 12.12.24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3EE2AF-8CB5-45A5-A7B3-DE6B4FD98675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84405E68-6725-45BF-A4B5-B4ABB9825B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="368">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -1890,6 +1890,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1901,12 +1907,6 @@
     <xf numFmtId="1" fontId="16" fillId="4" borderId="2" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
@@ -2331,46 +2331,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="66.1328125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.73046875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="23" customWidth="1"/>
-    <col min="11" max="12" width="10.59765625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="13.86328125" style="23" customWidth="1"/>
-    <col min="15" max="24" width="12.3984375" style="23" customWidth="1"/>
-    <col min="25" max="25" width="6.1328125" style="32" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" style="32" customWidth="1"/>
-    <col min="27" max="27" width="8.3984375" style="57" customWidth="1"/>
-    <col min="28" max="28" width="7.73046875" style="57" customWidth="1"/>
-    <col min="29" max="31" width="7.265625" style="57" customWidth="1"/>
-    <col min="32" max="32" width="7.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="66.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="23" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="31" customWidth="1"/>
+    <col min="13" max="14" width="13.85546875" style="23" customWidth="1"/>
+    <col min="15" max="24" width="12.42578125" style="23" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="32" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="32" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="57" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="57" customWidth="1"/>
+    <col min="29" max="31" width="7.28515625" style="57" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="23" customWidth="1"/>
     <col min="33" max="33" width="11" style="23" customWidth="1"/>
-    <col min="34" max="34" width="6.1328125" style="23" customWidth="1"/>
-    <col min="35" max="35" width="7.265625" style="24" customWidth="1"/>
-    <col min="36" max="36" width="6.73046875" style="24" customWidth="1"/>
-    <col min="37" max="37" width="8.1328125" style="25" customWidth="1"/>
-    <col min="38" max="38" width="7.59765625" style="26" customWidth="1"/>
-    <col min="39" max="39" width="9.3984375" style="27" customWidth="1"/>
-    <col min="40" max="41" width="9.3984375" style="24" customWidth="1"/>
-    <col min="42" max="43" width="9.1328125" style="28" customWidth="1"/>
-    <col min="44" max="44" width="13.1328125" style="28" customWidth="1"/>
-    <col min="45" max="45" width="9.1328125" style="29" customWidth="1"/>
-    <col min="46" max="16384" width="9.1328125" style="29"/>
+    <col min="34" max="34" width="6.140625" style="23" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" style="24" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="24" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" style="25" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="26" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" style="27" customWidth="1"/>
+    <col min="40" max="41" width="9.42578125" style="24" customWidth="1"/>
+    <col min="42" max="43" width="9.140625" style="28" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" style="28" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="29" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="90"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2402,62 +2402,62 @@
       <c r="AF1" s="20"/>
       <c r="AG1" s="20"/>
     </row>
-    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O2" s="64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O3" s="64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O4" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O5" s="64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O6" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O7" s="64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O8" s="64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O9" s="64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O10" s="65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O11" s="65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" s="68" t="s">
         <v>12</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I14" s="68" t="s">
         <v>14</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="W14" s="66"/>
       <c r="X14" s="66"/>
     </row>
-    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I15" s="15" t="s">
         <v>17</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="W15" s="66"/>
       <c r="X15" s="66"/>
     </row>
-    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="74" t="s">
         <v>20</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="W16" s="66"/>
       <c r="X16" s="66"/>
     </row>
-    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="W17" s="66"/>
       <c r="X17" s="66"/>
     </row>
-    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="88" t="s">
         <v>28</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="W18" s="66"/>
       <c r="X18" s="66"/>
     </row>
-    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="30" t="s">
         <v>33</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="85" t="s">
         <v>38</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>43</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="30" t="s">
         <v>48</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="30" t="s">
         <v>53</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
         <v>63</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
         <v>68</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="30" t="s">
         <v>74</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="78"/>
       <c r="C28" s="30" t="s">
@@ -2791,7 +2791,7 @@
       <c r="AQ28" s="37"/>
       <c r="AR28" s="37"/>
     </row>
-    <row r="29" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
       <c r="B29" s="78"/>
       <c r="C29" s="30" t="s">
@@ -2846,7 +2846,7 @@
       <c r="AQ29" s="37"/>
       <c r="AR29" s="37"/>
     </row>
-    <row r="30" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
       <c r="B30" s="78"/>
       <c r="C30" s="30" t="s">
@@ -2901,7 +2901,7 @@
       <c r="AQ30" s="37"/>
       <c r="AR30" s="37"/>
     </row>
-    <row r="31" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
       <c r="B31" s="78"/>
       <c r="C31" s="30" t="s">
@@ -2958,7 +2958,7 @@
       <c r="AQ31" s="37"/>
       <c r="AR31" s="37"/>
     </row>
-    <row r="32" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:44" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78"/>
       <c r="B32" s="78"/>
       <c r="C32" s="30" t="s">
@@ -3015,7 +3015,7 @@
       <c r="AQ32" s="37"/>
       <c r="AR32" s="37"/>
     </row>
-    <row r="33" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="78"/>
       <c r="C33" s="30" t="s">
@@ -3072,7 +3072,7 @@
       <c r="AQ33" s="37"/>
       <c r="AR33" s="37"/>
     </row>
-    <row r="34" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78"/>
       <c r="B34" s="78"/>
       <c r="C34" s="30" t="s">
@@ -3133,7 +3133,7 @@
       <c r="AQ34" s="37"/>
       <c r="AR34" s="37"/>
     </row>
-    <row r="35" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78"/>
       <c r="B35" s="78"/>
       <c r="C35" s="30" t="s">
@@ -3194,7 +3194,7 @@
       <c r="AQ35" s="37"/>
       <c r="AR35" s="37"/>
     </row>
-    <row r="36" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="78"/>
       <c r="C36" s="30" t="s">
@@ -3255,7 +3255,7 @@
       <c r="AQ36" s="37"/>
       <c r="AR36" s="37"/>
     </row>
-    <row r="37" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="79"/>
       <c r="B37" s="79"/>
       <c r="C37" s="30" t="s">
@@ -3323,7 +3323,7 @@
       <c r="AQ37" s="37"/>
       <c r="AR37" s="37"/>
     </row>
-    <row r="38" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" s="30" t="s">
         <v>155</v>
@@ -3390,7 +3390,7 @@
       <c r="AQ38" s="37"/>
       <c r="AR38" s="37"/>
     </row>
-    <row r="39" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="78"/>
       <c r="C39" s="30" t="s">
@@ -3448,17 +3448,17 @@
       <c r="AJ39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AK39" s="122" t="s">
+      <c r="AK39" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="AL39" s="120"/>
-      <c r="AM39" s="120"/>
-      <c r="AN39" s="121"/>
+      <c r="AL39" s="123"/>
+      <c r="AM39" s="123"/>
+      <c r="AN39" s="124"/>
       <c r="AP39" s="37"/>
       <c r="AQ39" s="37"/>
       <c r="AR39" s="37"/>
     </row>
-    <row r="40" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:45" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="80"/>
       <c r="C40" s="30" t="s">
@@ -3519,17 +3519,17 @@
       <c r="AJ40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AK40" s="119" t="s">
+      <c r="AK40" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="AL40" s="120"/>
-      <c r="AM40" s="121"/>
-      <c r="AP40" s="123" t="s">
+      <c r="AL40" s="123"/>
+      <c r="AM40" s="124"/>
+      <c r="AP40" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="AQ40" s="121"/>
-    </row>
-    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ40" s="124"/>
+    </row>
+    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
         <v>190</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="118" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" s="118" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="104"/>
       <c r="B42" s="105"/>
       <c r="C42" s="106"/>
@@ -3759,7 +3759,7 @@
       <c r="AR42" s="114"/>
       <c r="AS42" s="117"/>
     </row>
-    <row r="43" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>245</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="F43" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="125" t="s">
+      <c r="G43" s="120" t="s">
         <v>249</v>
       </c>
       <c r="H43" t="s">
@@ -3849,7 +3849,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>267</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="F44" t="s">
         <v>248</v>
       </c>
-      <c r="G44" s="126" t="s">
+      <c r="G44" s="121" t="s">
         <v>268</v>
       </c>
       <c r="H44" t="s">
@@ -3939,7 +3939,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>271</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>286</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>288</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:45" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>297</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>301</v>
       </c>
@@ -4426,8 +4426,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A50" s="124" t="s">
+    <row r="50" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="119" t="s">
         <v>304</v>
       </c>
       <c r="B50" t="s">
@@ -4524,7 +4524,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>306</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>309</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>271</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>286</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>288</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>297</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>301</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>304</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>306</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>309</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>311</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>320</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>322</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>333</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>336</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>338</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>340</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>342</v>
       </c>
@@ -6403,44 +6403,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.53125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.46484375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="11.46484375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="55.86328125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="10.53125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" style="23" customWidth="1"/>
-    <col min="13" max="15" width="12.46484375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="6.1328125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.1328125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="7.46484375" style="57" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="57" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" style="57" customWidth="1"/>
-    <col min="22" max="22" width="6.1328125" style="23" customWidth="1"/>
-    <col min="23" max="23" width="11.86328125" style="29" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="24" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.53125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="9.46484375" style="27" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.46484375" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.1328125" style="28" customWidth="1"/>
-    <col min="32" max="32" width="9.1328125" style="29" customWidth="1"/>
-    <col min="33" max="16384" width="9.1328125" style="29"/>
+    <col min="2" max="2" width="12.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="29" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="23" customWidth="1"/>
+    <col min="13" max="15" width="12.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="57" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="57" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="23" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="29" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" style="24" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" style="28" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="29" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="90"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -6464,62 +6464,62 @@
       <c r="T1" s="56"/>
       <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M2" s="64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M3" s="64" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M4" s="64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M5" s="64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M6" s="64" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M7" s="64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M8" s="64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M9" s="64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M10" s="65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M11" s="65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="68" t="s">
         <v>12</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J14" s="68" t="s">
         <v>14</v>
       </c>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="O14" s="66"/>
     </row>
-    <row r="15" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J15" s="15" t="s">
         <v>17</v>
       </c>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="O15" s="66"/>
     </row>
-    <row r="16" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J16" s="74" t="s">
         <v>20</v>
       </c>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="O16" s="66"/>
     </row>
-    <row r="17" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="30" t="s">
         <v>23</v>
       </c>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="O17" s="66"/>
     </row>
-    <row r="18" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="88" t="s">
         <v>28</v>
       </c>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="O18" s="66"/>
     </row>
-    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="30" t="s">
         <v>33</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="85" t="s">
         <v>38</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="30" t="s">
         <v>43</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="30" t="s">
         <v>48</v>
       </c>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="W22" s="81"/>
     </row>
-    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="30" t="s">
         <v>53</v>
       </c>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="W23" s="81"/>
     </row>
-    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="30" t="s">
         <v>58</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="W24" s="81"/>
     </row>
-    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="30" t="s">
         <v>63</v>
       </c>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="W25" s="81"/>
     </row>
-    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="30" t="s">
         <v>68</v>
       </c>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="W26" s="81"/>
     </row>
-    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="30" t="s">
         <v>74</v>
       </c>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="W27" s="81"/>
     </row>
-    <row r="28" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78"/>
       <c r="B28" s="78"/>
       <c r="C28" s="30" t="s">
@@ -6806,7 +6806,7 @@
       <c r="AD28" s="37"/>
       <c r="AE28" s="37"/>
     </row>
-    <row r="29" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78"/>
       <c r="B29" s="78"/>
       <c r="C29" s="30" t="s">
@@ -6848,7 +6848,7 @@
       <c r="AD29" s="37"/>
       <c r="AE29" s="37"/>
     </row>
-    <row r="30" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78"/>
       <c r="B30" s="78"/>
       <c r="C30" s="30" t="s">
@@ -6890,7 +6890,7 @@
       <c r="AD30" s="37"/>
       <c r="AE30" s="37"/>
     </row>
-    <row r="31" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78"/>
       <c r="B31" s="78"/>
       <c r="C31" s="30" t="s">
@@ -6934,7 +6934,7 @@
       <c r="AD31" s="37"/>
       <c r="AE31" s="37"/>
     </row>
-    <row r="32" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:31" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78"/>
       <c r="B32" s="78"/>
       <c r="C32" s="30" t="s">
@@ -6978,7 +6978,7 @@
       <c r="AD32" s="37"/>
       <c r="AE32" s="37"/>
     </row>
-    <row r="33" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78"/>
       <c r="B33" s="78"/>
       <c r="C33" s="30" t="s">
@@ -7022,7 +7022,7 @@
       <c r="AD33" s="37"/>
       <c r="AE33" s="37"/>
     </row>
-    <row r="34" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78"/>
       <c r="B34" s="78"/>
       <c r="C34" s="30" t="s">
@@ -7070,7 +7070,7 @@
       <c r="AD34" s="37"/>
       <c r="AE34" s="37"/>
     </row>
-    <row r="35" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78"/>
       <c r="B35" s="78"/>
       <c r="C35" s="30" t="s">
@@ -7118,7 +7118,7 @@
       <c r="AD35" s="37"/>
       <c r="AE35" s="37"/>
     </row>
-    <row r="36" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78"/>
       <c r="B36" s="78"/>
       <c r="C36" s="30" t="s">
@@ -7166,7 +7166,7 @@
       <c r="AD36" s="37"/>
       <c r="AE36" s="37"/>
     </row>
-    <row r="37" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="79"/>
       <c r="B37" s="79"/>
       <c r="C37" s="30" t="s">
@@ -7223,7 +7223,7 @@
       <c r="AD37" s="37"/>
       <c r="AE37" s="37"/>
     </row>
-    <row r="38" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>349</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="AD38" s="37"/>
       <c r="AE38" s="37"/>
     </row>
-    <row r="39" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>351</v>
       </c>
@@ -7330,16 +7330,16 @@
       <c r="Y39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="Z39" s="122" t="s">
+      <c r="Z39" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="AA39" s="120"/>
-      <c r="AB39" s="120"/>
-      <c r="AC39" s="121"/>
+      <c r="AA39" s="123"/>
+      <c r="AB39" s="123"/>
+      <c r="AC39" s="124"/>
       <c r="AD39" s="37"/>
       <c r="AE39" s="37"/>
     </row>
-    <row r="40" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:32" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>353</v>
       </c>
@@ -7395,17 +7395,17 @@
       <c r="Y40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="Z40" s="119" t="s">
+      <c r="Z40" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="AA40" s="120"/>
-      <c r="AB40" s="121"/>
-      <c r="AD40" s="123" t="s">
+      <c r="AA40" s="123"/>
+      <c r="AB40" s="124"/>
+      <c r="AD40" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="AE40" s="121"/>
-    </row>
-    <row r="41" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE40" s="124"/>
+    </row>
+    <row r="41" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
         <v>357</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="30" t="s">
         <v>246</v>
@@ -7567,7 +7567,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="30" t="s">
         <v>246</v>
@@ -7631,7 +7631,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="30" t="s">
         <v>246</v>
@@ -7693,7 +7693,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="30" t="s">
         <v>246</v>
@@ -7755,7 +7755,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="30" t="s">
         <v>246</v>
@@ -7817,7 +7817,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -7871,7 +7871,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -7925,7 +7925,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -7979,7 +7979,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -8033,7 +8033,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="51" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -8087,7 +8087,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -8141,7 +8141,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="53" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -8195,7 +8195,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -8249,7 +8249,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -8303,7 +8303,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="56" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -8357,7 +8357,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -8411,7 +8411,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -8465,7 +8465,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -8519,7 +8519,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -8573,7 +8573,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="61" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -8627,7 +8627,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="62" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -8681,7 +8681,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -8735,7 +8735,7 @@
         <v>ок</v>
       </c>
     </row>
-    <row r="64" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -8815,7 +8815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
